--- a/teaching/traditional_assets/database/data/brazil/brazil_office_equipment_services.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_office_equipment_services.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.22</v>
+        <v>-0.209</v>
       </c>
       <c r="G2">
-        <v>0.04145936981757877</v>
+        <v>-0.2652925531914894</v>
       </c>
       <c r="H2">
-        <v>0.04145936981757877</v>
+        <v>-0.2652925531914894</v>
       </c>
       <c r="I2">
-        <v>-0.06924653311752058</v>
+        <v>-0.1582446808510638</v>
       </c>
       <c r="J2">
-        <v>-0.06924653311752058</v>
+        <v>-0.1582446808510638</v>
       </c>
       <c r="K2">
-        <v>-69.5</v>
+        <v>-65.2</v>
       </c>
       <c r="L2">
-        <v>-0.2881426202321725</v>
+        <v>-0.4335106382978723</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>15.5</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="V2">
-        <v>2.504038772213247</v>
+        <v>0.7596330275229357</v>
       </c>
       <c r="W2">
-        <v>-2.757936507936508</v>
+        <v>21.80602006688963</v>
       </c>
       <c r="X2">
-        <v>1.463585798289645</v>
+        <v>0.4264119303569793</v>
       </c>
       <c r="Y2">
-        <v>-4.221522306226152</v>
+        <v>21.37960813653265</v>
       </c>
       <c r="Z2">
-        <v>6.716545287707405</v>
+        <v>2.557388199285836</v>
       </c>
       <c r="AA2">
-        <v>-0.4650974757005576</v>
+        <v>-0.4046930794082639</v>
       </c>
       <c r="AB2">
-        <v>0.09783770923129186</v>
+        <v>0.08533830539311128</v>
       </c>
       <c r="AC2">
-        <v>-0.5629351849318495</v>
+        <v>-0.4900313848013751</v>
       </c>
       <c r="AD2">
-        <v>118.1</v>
+        <v>73.2</v>
       </c>
       <c r="AE2">
-        <v>49.51131893972982</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>167.6113189397298</v>
+        <v>73.2</v>
       </c>
       <c r="AG2">
-        <v>152.1113189397298</v>
+        <v>64.92</v>
       </c>
       <c r="AH2">
-        <v>0.9643846201066717</v>
+        <v>0.8703923900118905</v>
       </c>
       <c r="AI2">
-        <v>1.018162896636095</v>
+        <v>1.224080267558528</v>
       </c>
       <c r="AJ2">
-        <v>0.9608973567531884</v>
+        <v>0.8562384595093642</v>
       </c>
       <c r="AK2">
-        <v>1.020050788319599</v>
+        <v>1.260093167701863</v>
       </c>
       <c r="AL2">
-        <v>30.8</v>
+        <v>21.4</v>
       </c>
       <c r="AM2">
-        <v>26.58</v>
+        <v>19.14</v>
       </c>
       <c r="AN2">
-        <v>-25.67391304347826</v>
+        <v>-2.64259927797834</v>
       </c>
       <c r="AO2">
-        <v>-0.6298701298701298</v>
+        <v>-1.11214953271028</v>
       </c>
       <c r="AP2">
-        <v>-33.06767803037605</v>
+        <v>-2.343682310469314</v>
       </c>
       <c r="AQ2">
-        <v>-0.7298720842738901</v>
+        <v>-1.243469174503657</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liq Participações S.A. (BOVESPA:LIQO3)</t>
+          <t>ATMA Participações S.A. (BOVESPA:ATMP3)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.22</v>
+        <v>-0.209</v>
       </c>
       <c r="G3">
-        <v>0.04145936981757877</v>
+        <v>-0.2652925531914894</v>
       </c>
       <c r="H3">
-        <v>0.04145936981757877</v>
+        <v>-0.2652925531914894</v>
       </c>
       <c r="I3">
-        <v>-0.06924653311752058</v>
+        <v>-0.1582446808510638</v>
       </c>
       <c r="J3">
-        <v>-0.06924653311752058</v>
+        <v>-0.1582446808510638</v>
       </c>
       <c r="K3">
-        <v>-69.5</v>
+        <v>-65.2</v>
       </c>
       <c r="L3">
-        <v>-0.2881426202321725</v>
+        <v>-0.4335106382978723</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>15.5</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="V3">
-        <v>2.504038772213247</v>
+        <v>0.7596330275229357</v>
       </c>
       <c r="W3">
-        <v>-2.757936507936508</v>
+        <v>21.80602006688963</v>
       </c>
       <c r="X3">
-        <v>1.463585798289645</v>
+        <v>0.4264119303569793</v>
       </c>
       <c r="Y3">
-        <v>-4.221522306226152</v>
+        <v>21.37960813653265</v>
       </c>
       <c r="Z3">
-        <v>6.716545287707405</v>
+        <v>2.557388199285836</v>
       </c>
       <c r="AA3">
-        <v>-0.4650974757005576</v>
+        <v>-0.4046930794082639</v>
       </c>
       <c r="AB3">
-        <v>0.09783770923129186</v>
+        <v>0.08533830539311128</v>
       </c>
       <c r="AC3">
-        <v>-0.5629351849318495</v>
+        <v>-0.4900313848013751</v>
       </c>
       <c r="AD3">
-        <v>118.1</v>
+        <v>73.2</v>
       </c>
       <c r="AE3">
-        <v>49.51131893972982</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>167.6113189397298</v>
+        <v>73.2</v>
       </c>
       <c r="AG3">
-        <v>152.1113189397298</v>
+        <v>64.92</v>
       </c>
       <c r="AH3">
-        <v>0.9643846201066717</v>
+        <v>0.8703923900118905</v>
       </c>
       <c r="AI3">
-        <v>1.018162896636095</v>
+        <v>1.224080267558528</v>
       </c>
       <c r="AJ3">
-        <v>0.9608973567531884</v>
+        <v>0.8562384595093642</v>
       </c>
       <c r="AK3">
-        <v>1.020050788319599</v>
+        <v>1.260093167701863</v>
       </c>
       <c r="AL3">
-        <v>30.8</v>
+        <v>21.4</v>
       </c>
       <c r="AM3">
-        <v>26.58</v>
+        <v>19.14</v>
       </c>
       <c r="AN3">
-        <v>-25.67391304347826</v>
+        <v>-2.64259927797834</v>
       </c>
       <c r="AO3">
-        <v>-0.6298701298701298</v>
+        <v>-1.11214953271028</v>
       </c>
       <c r="AP3">
-        <v>-33.06767803037605</v>
+        <v>-2.343682310469314</v>
       </c>
       <c r="AQ3">
-        <v>-0.7298720842738901</v>
+        <v>-1.243469174503657</v>
       </c>
     </row>
   </sheetData>
